--- a/Andamento das aulas.xlsx
+++ b/Andamento das aulas.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>COMPLETO</t>
   </si>
@@ -42,7 +42,13 @@
     <t>CICLO DE VIDA DO PROCESSO DE TESTE DE SOFTWARE</t>
   </si>
   <si>
-    <t>CONTINUAR: MODELO V</t>
+    <t>ESTRATEGIAS DE TESTE DE SOFTWARE</t>
+  </si>
+  <si>
+    <t>ESTAGIOS OU NIVEIS DE TESTE</t>
+  </si>
+  <si>
+    <t>CONTINUAR: ESTAGIOS OU NIVEIS DE TESTE</t>
   </si>
 </sst>
 </file>
@@ -363,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B7"/>
+  <dimension ref="A2:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -419,7 +425,23 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Andamento das aulas.xlsx
+++ b/Andamento das aulas.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t>COMPLETO</t>
   </si>
@@ -48,7 +48,16 @@
     <t>ESTAGIOS OU NIVEIS DE TESTE</t>
   </si>
   <si>
-    <t>CONTINUAR: ESTAGIOS OU NIVEIS DE TESTE</t>
+    <t>TECNICAS FUNCIONAIS</t>
+  </si>
+  <si>
+    <t>TECNICAS DE TESTES ESTRUTURAIS</t>
+  </si>
+  <si>
+    <t>OUTROS TIPOS DE TESTE</t>
+  </si>
+  <si>
+    <t>CONCLUSAO</t>
   </si>
 </sst>
 </file>
@@ -369,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B9"/>
+  <dimension ref="A2:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -441,7 +450,39 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
